--- a/GUATEMALA/Indígenas/Indicadores sociodemo poblaciones y PI-CELADE/% Emigrantes Recientes Indígenas Guatemala.xlsx
+++ b/GUATEMALA/Indígenas/Indicadores sociodemo poblaciones y PI-CELADE/% Emigrantes Recientes Indígenas Guatemala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\BBDD-CENTROAMERICA\GUATEMALA\Indígenas\Indicadores sociodemo poblaciones y PI-CELADE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7888B0DA-0EF1-43B8-9359-5BA939A69A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5A8EA3-A3CE-4273-A639-CA595D1ED676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,15 +168,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +531,7 @@
   <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +542,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -559,7 +557,7 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2"/>
@@ -583,7 +581,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
